--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
     <sheet name="editLead" sheetId="2" r:id="rId2"/>
     <sheet name="duplicateLead" sheetId="3" r:id="rId3"/>
     <sheet name="deleteLead" sheetId="4" r:id="rId4"/>
+    <sheet name="createContact" sheetId="5" r:id="rId5"/>
+    <sheet name="ServiceNow" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>username</t>
   </si>
@@ -94,13 +96,58 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Test Dept 1</t>
+  </si>
+  <si>
+    <t>Test Dept 2</t>
+  </si>
+  <si>
+    <t>Test Desc 1</t>
+  </si>
+  <si>
+    <t>Test Desc 2</t>
+  </si>
+  <si>
+    <t>Test1@email.com</t>
+  </si>
+  <si>
+    <t>Test2@email.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +159,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,15 +189,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,4 +716,158 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" activeCellId="1" sqref="D10 E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="duplicateLead" sheetId="3" r:id="rId3"/>
     <sheet name="deleteLead" sheetId="4" r:id="rId4"/>
     <sheet name="createContact" sheetId="5" r:id="rId5"/>
-    <sheet name="ServiceNow" sheetId="6" r:id="rId6"/>
+    <sheet name="SN_CreateIncident" sheetId="6" r:id="rId6"/>
+    <sheet name="SN_UpdateIncident" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>username</t>
   </si>
@@ -141,6 +142,15 @@
   </si>
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>updatedNotes</t>
+  </si>
+  <si>
+    <t>Updated Notes1</t>
+  </si>
+  <si>
+    <t>Updated Notes2</t>
   </si>
 </sst>
 </file>
@@ -819,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" activeCellId="1" sqref="D10 E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,4 +880,71 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="createLead" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,6 @@
     <sheet name="duplicateLead" sheetId="3" r:id="rId3"/>
     <sheet name="deleteLead" sheetId="4" r:id="rId4"/>
     <sheet name="createContact" sheetId="5" r:id="rId5"/>
-    <sheet name="SN_CreateIncident" sheetId="6" r:id="rId6"/>
-    <sheet name="SN_UpdateIncident" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -130,27 +128,6 @@
   </si>
   <si>
     <t>Test2@email.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>updatedNotes</t>
-  </si>
-  <si>
-    <t>Updated Notes1</t>
-  </si>
-  <si>
-    <t>Updated Notes2</t>
   </si>
 </sst>
 </file>
@@ -491,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,128 +800,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>